--- a/biology/Botanique/Amelanchier_sanguinea/Amelanchier_sanguinea.xlsx
+++ b/biology/Botanique/Amelanchier_sanguinea/Amelanchier_sanguinea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amelanchier sanguinea est une espèce de plante à fleurs de la famille des Rosaceae, originaire d'Amérique du Nord.
 </t>
@@ -513,13 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cet amélanchier est un arbre qui peut atteindre 10 m de hauteur et 20 cm de diamètre[1]. Son écorce grise est lisse lorsqu'elle est jeune mais devient rugueuse avec l'âge. Les jeunes rameaux ont une couleur rougeâtre. 
-Les feuilles, caduques, sont simples et de disposition alterne. De forme arrondie ou elliptique, elles mesurent de 3 à 7 cm de long[1]. Velues lorsqu'elles sont jeunes mais glabres à maturité, elles présentent une bordure dentée, portant généralement 10 à 12 paires de nervures secondaires et 18 à 20 dents par côté, ces dernières étant plus rares vers le pétiole[1].
-Les bourgeons mesurent de 8 à 12 mm de long[1]. Ils sont recouverts par 5 écailles et les bourgeons axillaires sont très accolés contre le rameau qui les porte, comme chez les autres amélanchiers.
-Appareil reproducteur
-La floraison a lieu au printemps, tôt dans la saison, pendant l'apparition des jeunes feuilles velues. Les fleurs blanches, bien visibles, apparaissent en grappes courtes (de 3 à 8 cm[1]) à l'extrémité de jeunes rameaux. Comme chez toutes les Rosaceae, elles possèdent 5 pétales qui, chez cette espèce, mesurent de 10 à 15 mm[1]. La pollinisation est assurée par les insectes (entomogamie).
-Les fruits sont des piridions qui ressemblent à des baies de couleur pourpre sombre. Portés par des pédoncules longs de 10 à 30 mm de longueur, ils mesurent de 5 à 10 mm de largeur et contiennent de 5 à 10 graines[1]. Ils atteignent la maturité au cours de l'été, fin juillet ou début août.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet amélanchier est un arbre qui peut atteindre 10 m de hauteur et 20 cm de diamètre. Son écorce grise est lisse lorsqu'elle est jeune mais devient rugueuse avec l'âge. Les jeunes rameaux ont une couleur rougeâtre. 
+Les feuilles, caduques, sont simples et de disposition alterne. De forme arrondie ou elliptique, elles mesurent de 3 à 7 cm de long. Velues lorsqu'elles sont jeunes mais glabres à maturité, elles présentent une bordure dentée, portant généralement 10 à 12 paires de nervures secondaires et 18 à 20 dents par côté, ces dernières étant plus rares vers le pétiole.
+Les bourgeons mesurent de 8 à 12 mm de long. Ils sont recouverts par 5 écailles et les bourgeons axillaires sont très accolés contre le rameau qui les porte, comme chez les autres amélanchiers.
 </t>
         </is>
       </c>
@@ -545,12 +559,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cet arbre originaire d'Amérique du Nord apprécie les lisières de forêts, les crêtes rocheuses, les plaines sablonneuses, les haies et bordure de clôture.
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu au printemps, tôt dans la saison, pendant l'apparition des jeunes feuilles velues. Les fleurs blanches, bien visibles, apparaissent en grappes courtes (de 3 à 8 cm) à l'extrémité de jeunes rameaux. Comme chez toutes les Rosaceae, elles possèdent 5 pétales qui, chez cette espèce, mesurent de 10 à 15 mm. La pollinisation est assurée par les insectes (entomogamie).
+Les fruits sont des piridions qui ressemblent à des baies de couleur pourpre sombre. Portés par des pédoncules longs de 10 à 30 mm de longueur, ils mesurent de 5 à 10 mm de largeur et contiennent de 5 à 10 graines. Ils atteignent la maturité au cours de l'été, fin juillet ou début août.
 </t>
         </is>
       </c>
@@ -576,12 +597,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbre originaire d'Amérique du Nord apprécie les lisières de forêts, les crêtes rocheuses, les plaines sablonneuses, les haies et bordure de clôture.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Amelanchier_sanguinea</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amelanchier_sanguinea</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxinomie et systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite scientifiquement pour la première fois sous le nom Pyrus sanguinea en 1813-1814 par le botaniste germano-américain Frederick Traugott Pursh dans l'ouvrage Flora Americae Septentrionalis[2]. Elle a été transférée dans le genre Amelanchier en 1825 par le botaniste suisse Augustin Pyrame de Candolle dans Prodromus Systematis Naturalis Regni Vegetabilis[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite scientifiquement pour la première fois sous le nom Pyrus sanguinea en 1813-1814 par le botaniste germano-américain Frederick Traugott Pursh dans l'ouvrage Flora Americae Septentrionalis. Elle a été transférée dans le genre Amelanchier en 1825 par le botaniste suisse Augustin Pyrame de Candolle dans Prodromus Systematis Naturalis Regni Vegetabilis.
 </t>
         </is>
       </c>
